--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="8"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="集合" sheetId="4" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Spring" sheetId="7" r:id="rId7"/>
     <sheet name="分布式事务" sheetId="8" r:id="rId8"/>
     <sheet name="设计模式" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>ArrayList clone()方法</t>
   </si>
@@ -382,6 +383,114 @@
   </si>
   <si>
     <t>说几个zookeeper常用的命令。</t>
+  </si>
+  <si>
+    <t>Dubbo 和 Spring Cloud 有什么区别？</t>
+  </si>
+  <si>
+    <t>dubbo都支持什么协议，推荐用哪种？</t>
+  </si>
+  <si>
+    <t>Dubbo需要 Web 容器吗？</t>
+  </si>
+  <si>
+    <t>Dubbo内置了哪几种服务容器？</t>
+  </si>
+  <si>
+    <t>Dubbo里面有哪几种节点角色？</t>
+  </si>
+  <si>
+    <t>画一画服务注册与发现的流程图</t>
+  </si>
+  <si>
+    <t>Dubbo默认使用什么注册中心，还有别的选择吗？</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种配置方式？</t>
+  </si>
+  <si>
+    <t>Dubbo 核心的配置有哪些？</t>
+  </si>
+  <si>
+    <t>在 Provider 上可以配置的 Consumer 端的属性有哪些？</t>
+  </si>
+  <si>
+    <t>Dubbo启动时如果依赖的服务不可用会怎样？</t>
+  </si>
+  <si>
+    <t>Dubbo推荐使用什么序列化框架，你知道的还有哪些？</t>
+  </si>
+  <si>
+    <t>Dubbo默认使用的是什么通信框架，还有别的选择吗？</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种集群容错方案，默认是哪种？</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种负载均衡策略，默认是哪种？</t>
+  </si>
+  <si>
+    <t>注册了多个同一样的服务，如果测试指定的某一个服务呢？</t>
+  </si>
+  <si>
+    <t>Dubbo支持服务多协议吗？</t>
+  </si>
+  <si>
+    <t>当一个服务接口有多种实现时怎么做？</t>
+  </si>
+  <si>
+    <t>服务上线怎么兼容旧版本？</t>
+  </si>
+  <si>
+    <t>Dubbo可以对结果进行缓存吗？</t>
+  </si>
+  <si>
+    <t>Dubbo服务之间的调用是阻塞的吗？</t>
+  </si>
+  <si>
+    <t>Dubbo支持分布式事务吗？</t>
+  </si>
+  <si>
+    <t>Dubbo telnet 命令能做什么？</t>
+  </si>
+  <si>
+    <t>Dubbo支持服务降级吗？</t>
+  </si>
+  <si>
+    <t>Dubbo如何优雅停机</t>
+  </si>
+  <si>
+    <t>服务提供者能实现失效踢出是什么原理？</t>
+  </si>
+  <si>
+    <t>如何解决服务调用链过长的问题？</t>
+  </si>
+  <si>
+    <t>服务读写推荐的容错策略是怎样的？</t>
+  </si>
+  <si>
+    <t>Dubbo必须依赖的包有哪些？</t>
+  </si>
+  <si>
+    <t>Dubbo的管理控制台能做什么？</t>
+  </si>
+  <si>
+    <t>说说 Dubbo 服务暴露的过程。</t>
+  </si>
+  <si>
+    <t>Dubbo 停止维护了吗？</t>
+  </si>
+  <si>
+    <t>Dubbo 和 Dubbox 有什么区别？</t>
+  </si>
+  <si>
+    <t>你还了解别的分布式框架吗？</t>
+  </si>
+  <si>
+    <t>Dubbo 能集成 Spring Boot 吗？</t>
+  </si>
+  <si>
+    <t>在使用过程中都遇到了些什么问题？</t>
   </si>
   <si>
     <t>dubbo 工作原理</t>
@@ -539,21 +648,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -576,22 +677,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,6 +706,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -619,8 +782,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,71 +807,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,21 +820,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -736,187 +830,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,39 +1021,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -993,6 +1054,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1010,6 +1080,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1018,185 +1121,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1548,7 +1639,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1572,7 +1663,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1702,6 +1793,22 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1718,136 +1825,136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1869,176 +1976,176 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2227,10 +2334,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2239,98 +2346,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2356,57 +2643,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2426,57 +2713,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>150</v>
+      <c r="A1" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>151</v>
+      <c r="A2" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>152</v>
+      <c r="A3" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>153</v>
+      <c r="A4" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>154</v>
+      <c r="A5" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>155</v>
+      <c r="A6" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>156</v>
+      <c r="A7" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2501,32 +2788,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2827,7 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2551,22 +2838,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>169</v>
+      <c r="A4" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="679" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="集合" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>ArrayList clone()方法</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>服务上线怎么兼容旧版本？</t>
+  </si>
+  <si>
+    <t>NIO</t>
   </si>
   <si>
     <t>Dubbo可以对结果进行缓存吗？</t>
@@ -648,12 +651,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +675,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -679,9 +683,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,8 +695,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,21 +735,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,22 +746,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,11 +764,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,16 +787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,15 +804,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,187 +841,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,21 +1032,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1063,26 +1059,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,13 +1103,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,10 +1140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,133 +1152,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,10 +1292,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2334,19 +2345,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2435,189 +2447,192 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>140</v>
+      <c r="A21" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>141</v>
+      <c r="A22" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>142</v>
+      <c r="A23" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>143</v>
+      <c r="A24" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
-        <v>144</v>
+      <c r="A25" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
-        <v>145</v>
+      <c r="A26" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>146</v>
+      <c r="A27" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>147</v>
+      <c r="A28" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>148</v>
+      <c r="A29" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
-        <v>149</v>
+      <c r="A30" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>150</v>
+      <c r="A31" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
-        <v>151</v>
+      <c r="A32" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>152</v>
+      <c r="A33" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>153</v>
+      <c r="A34" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
-        <v>154</v>
+      <c r="A35" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>155</v>
+      <c r="A36" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2643,57 +2658,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2718,52 +2733,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2788,32 +2803,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2838,22 +2853,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>ArrayList clone()方法</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>服务上线怎么兼容旧版本？</t>
-  </si>
-  <si>
-    <t>NIO</t>
   </si>
   <si>
     <t>Dubbo可以对结果进行缓存吗？</t>
@@ -651,10 +648,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -689,45 +686,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -735,45 +693,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,6 +716,51 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,8 +782,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,13 +828,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -841,13 +838,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +952,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,126 +976,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -998,30 +1019,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,6 +1029,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1046,44 +1052,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,6 +1086,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1140,10 +1137,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,133 +1149,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2345,13 +2342,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
@@ -2447,192 +2444,189 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H19" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2658,57 +2652,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2733,52 +2727,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2803,32 +2797,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2853,22 +2847,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -670,9 +670,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1279,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,7 +1287,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1833,136 +1837,136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1984,176 +1988,176 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2344,288 +2348,288 @@
   <sheetPr/>
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>174</v>
       </c>
     </row>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>ArrayList clone()方法</t>
   </si>
@@ -491,15 +491,6 @@
   </si>
   <si>
     <t>在使用过程中都遇到了些什么问题？</t>
-  </si>
-  <si>
-    <t>dubbo 工作原理</t>
-  </si>
-  <si>
-    <t>工作流程</t>
-  </si>
-  <si>
-    <t>序列化</t>
   </si>
   <si>
     <t>dubbo 支持哪些通信协议？</t>
@@ -2348,8 +2339,8 @@
   <sheetPr/>
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2538,99 +2529,84 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2656,57 +2632,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2731,52 +2707,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2801,32 +2777,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2851,22 +2827,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,26 +4,77 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="679" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="679" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="集合" sheetId="4" r:id="rId1"/>
-    <sheet name="多线程" sheetId="3" r:id="rId2"/>
-    <sheet name="redis" sheetId="5" r:id="rId3"/>
-    <sheet name="zk" sheetId="1" r:id="rId4"/>
-    <sheet name="dubbo" sheetId="2" r:id="rId5"/>
-    <sheet name="Kafka" sheetId="6" r:id="rId6"/>
-    <sheet name="Spring" sheetId="7" r:id="rId7"/>
-    <sheet name="分布式事务" sheetId="8" r:id="rId8"/>
-    <sheet name="设计模式" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="springboot" sheetId="10" r:id="rId1"/>
+    <sheet name="集合" sheetId="4" r:id="rId2"/>
+    <sheet name="多线程" sheetId="3" r:id="rId3"/>
+    <sheet name="redis" sheetId="5" r:id="rId4"/>
+    <sheet name="zk" sheetId="1" r:id="rId5"/>
+    <sheet name="dubbo" sheetId="2" r:id="rId6"/>
+    <sheet name="Kafka" sheetId="6" r:id="rId7"/>
+    <sheet name="Spring" sheetId="7" r:id="rId8"/>
+    <sheet name="分布式事务" sheetId="8" r:id="rId9"/>
+    <sheet name="设计模式" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+  <si>
+    <t>spring-boot-starter</t>
+  </si>
+  <si>
+    <t>@SpringBootApplication</t>
+  </si>
+  <si>
+    <t>@EnableAutoConfiguration</t>
+  </si>
+  <si>
+    <t>@RestController</t>
+  </si>
+  <si>
+    <t>@ConfigurationProperties(prefix = "person")</t>
+  </si>
+  <si>
+    <t>spring‐boot‐configuration‐processor</t>
+  </si>
+  <si>
+    <t>@Component</t>
+  </si>
+  <si>
+    <t>@Value获取值和@ConfigurationProperties获取值比较</t>
+  </si>
+  <si>
+    <t>@PropertySource(value = {"classpath:person.properties"})</t>
+  </si>
+  <si>
+    <t>SpringBoot推荐给容器中添加组件的方式</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>配置文件加载位置（配置文件优先级）</t>
+  </si>
+  <si>
+    <t>自动配置原理</t>
+  </si>
+  <si>
+    <t>@Conditional派生注解</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Docker核心概念</t>
+  </si>
+  <si>
+    <t>启动流程</t>
+  </si>
   <si>
     <t>ArrayList clone()方法</t>
   </si>
@@ -639,12 +690,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,22 +725,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,14 +765,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,8 +785,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,16 +810,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,7 +833,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,25 +847,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +856,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,10 +870,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -827,7 +886,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +1000,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,37 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,121 +1060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,6 +1089,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1045,17 +1113,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,43 +1157,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,10 +1185,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,137 +1197,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1350,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1639,160 +1707,100 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="10" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1804,14 +1812,38 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1820,10 +1852,176 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1833,132 +2031,132 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +2166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A34"/>
@@ -1984,172 +2182,172 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A31"/>
@@ -2174,157 +2372,157 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2334,13 +2532,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2351,262 +2549,262 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2616,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A11"/>
@@ -2632,57 +2830,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A10"/>
@@ -2707,52 +2905,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A6"/>
@@ -2777,72 +2975,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="679" activeTab="2"/>
+    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="679" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Spring" sheetId="7" r:id="rId8"/>
     <sheet name="分布式事务" sheetId="8" r:id="rId9"/>
     <sheet name="设计模式" sheetId="9" r:id="rId10"/>
+    <sheet name="Netty" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>spring-boot-starter</t>
   </si>
@@ -683,6 +684,30 @@
   </si>
   <si>
     <t>DCL非线程安全的实现</t>
+  </si>
+  <si>
+    <t>讲讲Netty的特点</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>AIO</t>
+  </si>
+  <si>
+    <t>粘包</t>
+  </si>
+  <si>
+    <t>拆包</t>
+  </si>
+  <si>
+    <t>粘包、拆包发生原因</t>
+  </si>
+  <si>
+    <t>粘包、拆包解决办法</t>
   </si>
 </sst>
 </file>
@@ -692,8 +717,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -733,11 +758,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,6 +796,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -757,13 +818,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -772,14 +826,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,52 +864,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -855,10 +872,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,8 +887,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,6 +911,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -898,25 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,19 +1001,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,73 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,43 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,11 +1105,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,21 +1144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1135,6 +1151,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,23 +1188,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,10 +1210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,137 +1222,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,9 +1376,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1710,7 +1732,7 @@
   <dimension ref="A1:A131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1719,87 +1741,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1815,7 +1837,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1841,6 +1863,71 @@
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1942,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2020,8 +2107,8 @@
   <sheetPr/>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2172,7 +2259,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2362,7 +2449,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A31" sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2535,10 +2622,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="A52" sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2727,83 +2814,83 @@
         <v>172</v>
       </c>
     </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2820,7 +2907,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A11" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2894,8 +2981,8 @@
   <sheetPr/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2965,7 +3052,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="679" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="679" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -717,8 +717,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -765,38 +765,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,7 +782,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,7 +804,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,7 +834,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,55 +894,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +917,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,169 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,9 +1122,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,26 +1148,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,20 +1188,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,10 +1210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,133 +1222,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2982,7 +2982,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="679" activeTab="7"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="679" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>spring-boot-starter</t>
   </si>
@@ -353,13 +353,22 @@
     <t>ZooKeeper提供了什么</t>
   </si>
   <si>
+    <t>找</t>
+  </si>
+  <si>
     <t>Zookeeper文件系统</t>
   </si>
   <si>
     <t>ZooKeeper 分布式锁实现原理</t>
   </si>
   <si>
+    <t>在lock节点下创建一个临时节点</t>
+  </si>
+  <si>
     <t>ZAB协议</t>
+  </si>
+  <si>
+    <t>sequence类型的子节点</t>
   </si>
   <si>
     <t>ZAB和Paxos算法的联系与区别？</t>
@@ -717,10 +726,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +759,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
@@ -759,23 +775,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,38 +795,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,6 +810,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -848,39 +826,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,12 +858,65 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -908,6 +924,156 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -917,79 +1083,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,97 +1107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,32 +1118,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1146,29 +1136,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,17 +1166,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,10 +1226,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,137 +1238,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,11 +1387,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1737,91 +1759,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1847,22 +1869,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1887,47 +1909,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1951,147 +1973,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2113,136 +2135,136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2264,176 +2286,176 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2446,170 +2468,179 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>108</v>
       </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>112</v>
+      <c r="A7" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>113</v>
+      <c r="A8" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>114</v>
+      <c r="A9" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>115</v>
+      <c r="A10" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>116</v>
+      <c r="A11" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>117</v>
+      <c r="A12" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>118</v>
+      <c r="A13" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>119</v>
+      <c r="A14" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>120</v>
+      <c r="A15" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>121</v>
+      <c r="A16" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>122</v>
+      <c r="A17" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>123</v>
+      <c r="A18" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>124</v>
+      <c r="A19" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>125</v>
+      <c r="A20" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>126</v>
+      <c r="A21" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>127</v>
+      <c r="A22" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>128</v>
+      <c r="A23" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>129</v>
+      <c r="A24" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>130</v>
+      <c r="A25" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>131</v>
+      <c r="A26" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>132</v>
+      <c r="A27" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>133</v>
+      <c r="A28" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>134</v>
+      <c r="A29" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>135</v>
+      <c r="A30" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>136</v>
+      <c r="A31" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2656,7 @@
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A1:A52"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2636,262 +2667,262 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2917,57 +2948,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2981,8 +3012,8 @@
   <sheetPr/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2992,52 +3023,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3062,32 +3093,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="679" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="679" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>spring-boot-starter</t>
   </si>
@@ -353,22 +353,13 @@
     <t>ZooKeeper提供了什么</t>
   </si>
   <si>
-    <t>找</t>
-  </si>
-  <si>
     <t>Zookeeper文件系统</t>
   </si>
   <si>
     <t>ZooKeeper 分布式锁实现原理</t>
   </si>
   <si>
-    <t>在lock节点下创建一个临时节点</t>
-  </si>
-  <si>
     <t>ZAB协议</t>
-  </si>
-  <si>
-    <t>sequence类型的子节点</t>
   </si>
   <si>
     <t>ZAB和Paxos算法的联系与区别？</t>
@@ -724,10 +715,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -752,13 +743,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
@@ -774,6 +758,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -781,8 +772,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,17 +809,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,9 +832,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,22 +850,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,24 +878,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,7 +918,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,19 +942,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,25 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,43 +1080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,67 +1098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,21 +1109,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1166,6 +1142,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1182,15 +1182,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,10 +1217,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1238,137 +1229,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,25 +1372,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1759,91 +1747,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1869,22 +1857,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1909,47 +1897,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1973,147 +1961,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2468,179 +2456,170 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2655,8 +2634,8 @@
   <sheetPr/>
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2667,262 +2646,262 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2948,57 +2927,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3023,52 +3002,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3093,32 +3072,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="679" activeTab="5"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="679" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -715,10 +715,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -732,6 +732,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -752,21 +760,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,76 +809,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,9 +832,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,6 +847,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -895,14 +864,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -918,7 +918,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,31 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +1056,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,127 +1092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,6 +1109,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1122,21 +1155,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1159,24 +1177,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1186,26 +1186,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,10 +1217,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,156 +1229,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1388,6 +1391,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1747,91 +1754,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1844,36 +1851,39 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>219</v>
       </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1884,10 +1894,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1896,49 +1906,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>206</v>
       </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1951,157 +1967,157 @@
   <sheetPr/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2117,142 +2133,142 @@
   <sheetPr/>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2268,182 +2284,182 @@
   <sheetPr/>
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2464,161 +2480,161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2634,273 +2650,273 @@
   <sheetPr/>
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2917,7 +2933,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:A11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2926,57 +2942,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2992,61 +3008,61 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3062,41 +3078,41 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:A6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
     </row>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="679" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="784"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="237">
   <si>
     <t>spring-boot-starter</t>
   </si>
@@ -218,6 +218,30 @@
     <t>CyclicBarrier和CountDownLatch的区别</t>
   </si>
   <si>
+    <t>Java中如何让多线程按照自己指定的顺序执行？</t>
+  </si>
+  <si>
+    <t>Thread.join的实现原理</t>
+  </si>
+  <si>
+    <t>join为什么阻塞的是主线程呢?</t>
+  </si>
+  <si>
+    <t>为什么previousThread线程执行完毕就能够唤醒住线程呢？或者说是在什么时候唤醒的？</t>
+  </si>
+  <si>
+    <t>Callable</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>FutureTask</t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
     <t>什么是线程池：</t>
   </si>
   <si>
@@ -237,6 +261,9 @@
   </si>
   <si>
     <t>java多线程有哪些常见的锁，各自用法是什么？</t>
+  </si>
+  <si>
+    <t>ExecutorService</t>
   </si>
   <si>
     <t>并发容器</t>
@@ -715,10 +742,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -737,7 +764,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
@@ -751,6 +777,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
@@ -759,27 +793,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -795,6 +808,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -803,17 +823,56 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,61 +892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,10 +907,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -918,7 +945,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +981,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,25 +1047,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,31 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +1089,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,79 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,6 +1136,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1136,11 +1187,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,17 +1217,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,30 +1236,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1217,10 +1244,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,137 +1256,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1396,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1381,20 +1411,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1748,97 +1782,97 @@
   <sheetPr/>
   <dimension ref="A1:A131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1851,39 +1885,42 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>216</v>
+      <c r="A1" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>217</v>
+      <c r="A2" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>218</v>
+      <c r="A3" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1894,10 +1931,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1907,54 +1944,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1967,13 +2010,13 @@
   <sheetPr/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2131,146 +2174,268 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="11" t="s">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="11" t="s">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11" t="s">
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11" t="s">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="11" t="s">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="14" t="s">
         <v>71</v>
       </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2282,186 +2447,222 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2474,168 +2675,168 @@
   <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>106</v>
+      <c r="A1" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>107</v>
+      <c r="A2" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
-        <v>108</v>
+      <c r="A3" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
-        <v>109</v>
+      <c r="A4" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
-        <v>110</v>
+      <c r="A5" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
-        <v>111</v>
+      <c r="A6" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
-        <v>112</v>
+      <c r="A7" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
-        <v>113</v>
+      <c r="A8" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
-        <v>114</v>
+      <c r="A9" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
-        <v>115</v>
+      <c r="A10" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>116</v>
+      <c r="A11" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
-        <v>117</v>
+      <c r="A12" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
-        <v>118</v>
+      <c r="A13" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>119</v>
+      <c r="A14" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
-        <v>120</v>
+      <c r="A15" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
-        <v>121</v>
+      <c r="A16" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>122</v>
+      <c r="A17" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
-        <v>123</v>
+      <c r="A18" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
-        <v>124</v>
+      <c r="A19" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
-        <v>125</v>
+      <c r="A20" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
-        <v>126</v>
+      <c r="A21" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
-        <v>127</v>
+      <c r="A22" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
-        <v>128</v>
+      <c r="A23" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
-        <v>129</v>
+      <c r="A24" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>130</v>
+      <c r="A25" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
-        <v>131</v>
+      <c r="A26" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
-        <v>132</v>
+      <c r="A27" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
-        <v>133</v>
+      <c r="A28" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
-        <v>134</v>
+      <c r="A29" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
-        <v>135</v>
+      <c r="A30" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
-        <v>136</v>
+      <c r="A31" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2650,274 +2851,274 @@
   <sheetPr/>
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="6"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>137</v>
+      <c r="A1" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
-        <v>138</v>
+      <c r="A2" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
-        <v>139</v>
+      <c r="A3" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>140</v>
+      <c r="A4" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
-        <v>141</v>
+      <c r="A5" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
-        <v>142</v>
+      <c r="A6" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
-        <v>143</v>
+      <c r="A7" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>144</v>
+      <c r="A8" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>145</v>
+      <c r="A9" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
-        <v>146</v>
+      <c r="A10" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
-        <v>147</v>
+      <c r="A11" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>148</v>
+      <c r="A12" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
-        <v>149</v>
+      <c r="A13" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
-        <v>150</v>
+      <c r="A14" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
-        <v>151</v>
+      <c r="A15" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
-        <v>152</v>
+      <c r="A16" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
-        <v>153</v>
+      <c r="A17" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
-        <v>154</v>
+      <c r="A18" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
-        <v>155</v>
+      <c r="A19" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>156</v>
+      <c r="A20" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>157</v>
+      <c r="A21" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
-        <v>158</v>
+      <c r="A22" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
-        <v>159</v>
+      <c r="A23" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
-        <v>160</v>
+      <c r="A24" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>161</v>
+      <c r="A25" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>162</v>
+      <c r="A26" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
-        <v>163</v>
+      <c r="A27" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
-        <v>164</v>
+      <c r="A28" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
-        <v>165</v>
+      <c r="A29" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
-        <v>166</v>
+      <c r="A30" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>167</v>
+      <c r="A31" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
-        <v>168</v>
+      <c r="A32" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
-        <v>169</v>
+      <c r="A33" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
-        <v>170</v>
+      <c r="A34" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
-        <v>171</v>
+      <c r="A35" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
-        <v>172</v>
+      <c r="A36" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>173</v>
+      <c r="A37" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
-        <v>174</v>
+      <c r="A38" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
-        <v>175</v>
+      <c r="A39" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
-        <v>176</v>
+      <c r="A40" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="7" t="s">
-        <v>177</v>
+      <c r="A41" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="7" t="s">
-        <v>178</v>
+      <c r="A42" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
-        <v>179</v>
+      <c r="A43" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
-        <v>180</v>
+      <c r="A44" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="7" t="s">
-        <v>181</v>
+      <c r="A45" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
-        <v>182</v>
+      <c r="A46" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
-        <v>183</v>
+      <c r="A47" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
-        <v>184</v>
+      <c r="A48" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
-        <v>185</v>
+      <c r="A49" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
-        <v>186</v>
+      <c r="A50" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
-        <v>187</v>
+      <c r="A51" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
-        <v>188</v>
+      <c r="A52" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2930,71 +3131,82 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>199</v>
       </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3005,66 +3217,75 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>200</v>
+      <c r="A1" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>201</v>
+      <c r="A2" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>203</v>
+      <c r="A4" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>204</v>
+      <c r="A5" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>205</v>
+      <c r="A6" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>206</v>
+      <c r="A7" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>207</v>
+      <c r="A8" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>208</v>
+      <c r="A9" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3075,46 +3296,64 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>215</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="784"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="784" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -743,9 +743,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -792,14 +792,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -815,7 +807,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,8 +837,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,47 +907,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,15 +916,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,14 +935,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -945,13 +945,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,19 +975,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,13 +1023,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,25 +1071,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,67 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,30 +1136,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1187,21 +1163,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1219,15 +1180,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1236,6 +1188,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1244,149 +1244,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1418,20 +1418,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1782,97 +1773,97 @@
   <sheetPr/>
   <dimension ref="A1:A131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1888,7 +1879,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1933,8 +1924,8 @@
   <sheetPr/>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2010,13 +2001,13 @@
   <sheetPr/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2177,265 +2168,300 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="B8" s="3"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="B9" s="3"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="B10" s="3"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="B11" s="3"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="B12" s="3"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="B13" s="3"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="B14" s="3"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="B15" s="3"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="B16" s="3"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="B17" s="3"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="B18" s="3"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="B19" s="3"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="B20" s="3"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="B21" s="3"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="B22" s="3"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="B23" s="3"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="B24" s="3"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="B25" s="3"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="B26" s="3"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="B27" s="3"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="B28" s="3"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="B29" s="3"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="B30" s="3"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="B31" s="3"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="B32" s="3"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="B33" s="3"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="B34" s="3"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="B35" s="3"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="15"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="15"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="15"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="15"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="15"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="15"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="15"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="15"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="15"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="15"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="15"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="15"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="15"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="15"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="15"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="15"/>
+      <c r="H51" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2449,8 +2475,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2459,210 +2485,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2676,12 +2702,13 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2851,14 +2878,16 @@
   <sheetPr/>
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="2" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3220,7 +3249,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="784" activeTab="10"/>
+    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="784" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="分布式事务" sheetId="8" r:id="rId9"/>
     <sheet name="设计模式" sheetId="9" r:id="rId10"/>
     <sheet name="Netty" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="261">
   <si>
     <t>spring-boot-starter</t>
   </si>
@@ -44,15 +45,30 @@
     <t>spring‐boot‐configuration‐processor</t>
   </si>
   <si>
+    <t>springbootapplication</t>
+  </si>
+  <si>
     <t>@Component</t>
   </si>
   <si>
+    <t>enableautoconfiguration</t>
+  </si>
+  <si>
+    <t>开启自动配置功能</t>
+  </si>
+  <si>
     <t>@Value获取值和@ConfigurationProperties获取值比较</t>
   </si>
   <si>
+    <t>Springbootconfiguartion</t>
+  </si>
+  <si>
     <t>@PropertySource(value = {"classpath:person.properties"})</t>
   </si>
   <si>
+    <t>compontentscan</t>
+  </si>
+  <si>
     <t>SpringBoot推荐给容器中添加组件的方式</t>
   </si>
   <si>
@@ -65,6 +81,21 @@
     <t>自动配置原理</t>
   </si>
   <si>
+    <t>autoconfigurationpacket</t>
+  </si>
+  <si>
+    <t>扫描Springbootapplication的包下的所有类扫描到spring容器里</t>
+  </si>
+  <si>
+    <t>import（enableautoconfigurationimportselector.class）</t>
+  </si>
+  <si>
+    <t>给容器导入自动配置类</t>
+  </si>
+  <si>
+    <t>给容器中导入这些场景所需要的组件，并自动配置好</t>
+  </si>
+  <si>
     <t>@Conditional派生注解</t>
   </si>
   <si>
@@ -735,6 +766,48 @@
   </si>
   <si>
     <t>粘包、拆包解决办法</t>
+  </si>
+  <si>
+    <t>#{}和${}的区别是什么？</t>
+  </si>
+  <si>
+    <t>当实体类中的属性名和表中的字段名不一样 ，怎么办 ？</t>
+  </si>
+  <si>
+    <t>模糊查询like语句该怎么写?</t>
+  </si>
+  <si>
+    <t>通常一个Xml映射文件，都会写一个Dao接口与之对应，请问，这个Dao接口的工作原理是什么？</t>
+  </si>
+  <si>
+    <t>Dao接口里的方法，参数不同时，方法能重载吗？</t>
+  </si>
+  <si>
+    <t>Mybatis是如何进行分页的？分页插件的原理是什么？</t>
+  </si>
+  <si>
+    <t>Mybatis是如何将sql执行结果封装为目标对象并返回的？都有哪些映射形式？</t>
+  </si>
+  <si>
+    <t>如何执行批量插入?</t>
+  </si>
+  <si>
+    <t>如何获取自动生成的(主)键值?</t>
+  </si>
+  <si>
+    <t>在mapper中如何传递多个参数?</t>
+  </si>
+  <si>
+    <t>Mybatis动态sql是做什么的？都有哪些动态sql？能简述一下动态sql的执行原理不？</t>
+  </si>
+  <si>
+    <t>Mybatis的Xml映射文件中，不同的Xml映射文件，id是否可以重复？</t>
+  </si>
+  <si>
+    <t>为什么说Mybatis是半自动ORM映射工具？它与全自动的区别在哪里？</t>
+  </si>
+  <si>
+    <t>一对一、一对多的关联查询 ？</t>
   </si>
 </sst>
 </file>
@@ -742,12 +815,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,8 +837,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -777,8 +850,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -786,9 +859,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,17 +902,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,63 +916,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,14 +934,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,8 +964,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,6 +981,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,7 +1010,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,19 +1100,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,49 +1142,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,97 +1190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1208,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1224,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,6 +1284,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1188,54 +1301,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1244,10 +1309,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1256,173 +1321,176 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1771,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1807,64 +1875,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="14:14">
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1879,39 +1988,40 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>225</v>
+      <c r="A1" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>226</v>
+      <c r="A2" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>227</v>
+      <c r="A3" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>228</v>
+      <c r="A4" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1924,8 +2034,86 @@
   <sheetPr/>
   <dimension ref="A1:A13"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1935,60 +2123,73 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>230</v>
+      <c r="A2" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>231</v>
+      <c r="A3" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>232</v>
+      <c r="A4" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>233</v>
+      <c r="A5" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>234</v>
+      <c r="A6" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>235</v>
+      <c r="A7" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>236</v>
+      <c r="A8" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>215</v>
+      <c r="A9" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1999,160 +2200,161 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
+      <c r="A2" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
+      <c r="A3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
+      <c r="A4" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
+      <c r="A5" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
+      <c r="A6" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
+      <c r="A7" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
+      <c r="A8" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
+      <c r="A9" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
+      <c r="A10" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
+      <c r="A11" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
+      <c r="A12" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
+      <c r="A13" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
+      <c r="A14" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
+      <c r="A15" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
+      <c r="A16" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
+      <c r="A17" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
+      <c r="A18" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
+      <c r="A19" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
+      <c r="A20" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
+      <c r="A21" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A22" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
+      <c r="A24" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
+      <c r="A25" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
+      <c r="A26" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
+      <c r="A27" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
+      <c r="A28" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
+      <c r="A29" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2167,301 +2369,275 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="H27" s="13"/>
+      <c r="A27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="H30" s="13"/>
+      <c r="A30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="H31" s="13"/>
+      <c r="A31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="H33" s="13"/>
+      <c r="A33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="H34" s="13"/>
+      <c r="A34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="H35" s="13"/>
+      <c r="A35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="13"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="13"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="13"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="13"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="13"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="13"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="13"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="13"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="13"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="13"/>
+      <c r="H51" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2475,220 +2651,220 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="A5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="3"/>
+      <c r="A6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="A9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="A10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="A13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="3"/>
+      <c r="A14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="3"/>
+      <c r="A15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="3"/>
+      <c r="A16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="3"/>
+      <c r="A17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="3"/>
+      <c r="A18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="3"/>
+      <c r="A19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="3"/>
+      <c r="A22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="A23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="3"/>
+      <c r="A24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="3"/>
+      <c r="A25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="3"/>
+      <c r="A26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="3"/>
+      <c r="A27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="3"/>
+      <c r="A28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="3"/>
+      <c r="A29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="3"/>
+      <c r="A30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="3"/>
+      <c r="A31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="3"/>
+      <c r="A32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="3"/>
+      <c r="A33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="3"/>
+      <c r="A34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2701,169 +2877,169 @@
   <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>115</v>
+      <c r="A1" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>116</v>
+      <c r="A2" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>117</v>
+      <c r="A3" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>118</v>
+      <c r="A4" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>119</v>
+      <c r="A5" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>120</v>
+      <c r="A6" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>121</v>
+      <c r="A7" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>122</v>
+      <c r="A8" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>123</v>
+      <c r="A9" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>124</v>
+      <c r="A10" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>125</v>
+      <c r="A11" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>126</v>
+      <c r="A12" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>127</v>
+      <c r="A13" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>128</v>
+      <c r="A14" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>129</v>
+      <c r="A15" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>130</v>
+      <c r="A16" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>131</v>
+      <c r="A17" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>132</v>
+      <c r="A18" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>133</v>
+      <c r="A19" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>134</v>
+      <c r="A20" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>135</v>
+      <c r="A21" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>136</v>
+      <c r="A22" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>137</v>
+      <c r="A23" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>138</v>
+      <c r="A24" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>139</v>
+      <c r="A25" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>140</v>
+      <c r="A26" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>141</v>
+      <c r="A27" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
-        <v>142</v>
+      <c r="A28" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>143</v>
+      <c r="A29" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>144</v>
+      <c r="A30" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
-        <v>145</v>
+      <c r="A31" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2878,276 +3054,276 @@
   <sheetPr/>
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="15.625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>146</v>
+      <c r="A1" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>147</v>
+      <c r="A2" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>148</v>
+      <c r="A3" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>149</v>
+      <c r="A4" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>150</v>
+      <c r="A5" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>151</v>
+      <c r="A6" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>152</v>
+      <c r="A7" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>153</v>
+      <c r="A8" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>154</v>
+      <c r="A9" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>155</v>
+      <c r="A10" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>156</v>
+      <c r="A11" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
-        <v>157</v>
+      <c r="A12" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>158</v>
+      <c r="A13" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>159</v>
+      <c r="A14" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>160</v>
+      <c r="A15" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>161</v>
+      <c r="A16" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>162</v>
+      <c r="A17" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>163</v>
+      <c r="A18" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>164</v>
+      <c r="A19" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>165</v>
+      <c r="A20" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>166</v>
+      <c r="A21" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>167</v>
+      <c r="A22" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>168</v>
+      <c r="A23" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>169</v>
+      <c r="A24" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
-        <v>170</v>
+      <c r="A25" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
-        <v>171</v>
+      <c r="A26" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>172</v>
+      <c r="A27" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>173</v>
+      <c r="A28" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>174</v>
+      <c r="A29" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>175</v>
+      <c r="A30" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
-        <v>176</v>
+      <c r="A31" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>177</v>
+      <c r="A32" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>178</v>
+      <c r="A33" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>179</v>
+      <c r="A34" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>180</v>
+      <c r="A35" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
-        <v>181</v>
+      <c r="A36" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>182</v>
+      <c r="A37" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
-        <v>183</v>
+      <c r="A38" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
-        <v>184</v>
+      <c r="A39" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
-        <v>185</v>
+      <c r="A40" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
-        <v>186</v>
+      <c r="A41" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
-        <v>187</v>
+      <c r="A42" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
-        <v>188</v>
+      <c r="A43" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
-        <v>189</v>
+      <c r="A44" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
-        <v>190</v>
+      <c r="A45" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
-        <v>191</v>
+      <c r="A46" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
-        <v>192</v>
+      <c r="A47" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>193</v>
+      <c r="A48" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
-        <v>194</v>
+      <c r="A49" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="4" t="s">
-        <v>195</v>
+      <c r="A50" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="4" t="s">
-        <v>196</v>
+      <c r="A51" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="4" t="s">
-        <v>197</v>
+      <c r="A52" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3163,77 +3339,77 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B11" s="9"/>
     </row>
@@ -3249,72 +3425,73 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>209</v>
+      <c r="A1" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>210</v>
+      <c r="A2" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>211</v>
+      <c r="A3" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>212</v>
+      <c r="A4" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>213</v>
+      <c r="A5" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>214</v>
+      <c r="A6" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>215</v>
+      <c r="A7" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>216</v>
+      <c r="A8" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>217</v>
+      <c r="A9" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
-        <v>218</v>
+      <c r="A10" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3328,61 +3505,61 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="7"/>
+      <c r="A6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="784" activeTab="11"/>
+    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="784" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="分布式事务" sheetId="8" r:id="rId9"/>
     <sheet name="设计模式" sheetId="9" r:id="rId10"/>
     <sheet name="Netty" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="mybatis" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="317">
   <si>
     <t>spring-boot-starter</t>
   </si>
@@ -744,22 +745,67 @@
     <t>DCL非线程安全的实现</t>
   </si>
   <si>
-    <t>讲讲Netty的特点</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>NIO</t>
-  </si>
-  <si>
-    <t>AIO</t>
-  </si>
-  <si>
-    <t>粘包</t>
-  </si>
-  <si>
-    <t>拆包</t>
+    <t>Netty 是什么</t>
+  </si>
+  <si>
+    <t>Netty 的特点是什么？</t>
+  </si>
+  <si>
+    <t>内存池原理</t>
+  </si>
+  <si>
+    <t>什么是 Netty 的零拷贝？</t>
+  </si>
+  <si>
+    <t>堆外内存</t>
+  </si>
+  <si>
+    <t>堆外内存申请</t>
+  </si>
+  <si>
+    <t>Netty中如何保证异步串行无锁化</t>
+  </si>
+  <si>
+    <t>高性能序列化协议protobuf</t>
+  </si>
+  <si>
+    <t>为什么使用堆外内存</t>
+  </si>
+  <si>
+    <t>Netty 和 Tomcat 的区别？</t>
+  </si>
+  <si>
+    <t>Netty 中有那种重要组件？</t>
+  </si>
+  <si>
+    <t>Netty 发送消息有几种方式？</t>
+  </si>
+  <si>
+    <t>默认情况 Netty 起多少线程？何时启动？</t>
+  </si>
+  <si>
+    <t>Netty 支持哪些心跳类型设置？</t>
+  </si>
+  <si>
+    <t>netty线程模型</t>
+  </si>
+  <si>
+    <t>Reactor模式（反应，分发）</t>
+  </si>
+  <si>
+    <t>Reactor单线程（NIO）群聊例子</t>
+  </si>
+  <si>
+    <t>Reactor多线程（NIO）</t>
+  </si>
+  <si>
+    <t>Reactor主从多线程</t>
+  </si>
+  <si>
+    <t>Netty模型</t>
+  </si>
+  <si>
+    <t>几种序列化协议</t>
   </si>
   <si>
     <t>粘包、拆包发生原因</t>
@@ -768,6 +814,78 @@
     <t>粘包、拆包解决办法</t>
   </si>
   <si>
+    <t>Netty的粘包/拆包是怎么处理的，有哪些实现？</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Netty任务队列有3中</t>
+  </si>
+  <si>
+    <t>ChannelFuture</t>
+  </si>
+  <si>
+    <t>Future-Listener机制</t>
+  </si>
+  <si>
+    <t>ByteBuf</t>
+  </si>
+  <si>
+    <t>handler()和childHandler()的主要区别</t>
+  </si>
+  <si>
+    <t>Bootstrap,ServerBootstrap</t>
+  </si>
+  <si>
+    <t>Bootstrap参数说明</t>
+  </si>
+  <si>
+    <t>ChannelHandler</t>
+  </si>
+  <si>
+    <t>pipeline，ChannelPipeline</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext</t>
+  </si>
+  <si>
+    <t>ChannelOption</t>
+  </si>
+  <si>
+    <t>EvenLoopGroup/NioEventLoopGroup</t>
+  </si>
+  <si>
+    <t>Unpooled</t>
+  </si>
+  <si>
+    <t>Netty心跳</t>
+  </si>
+  <si>
+    <t>Netty启动过程源码分析</t>
+  </si>
+  <si>
+    <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
+  </si>
+  <si>
+    <t>ChannelPipeline调度Handle</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext源码分析</t>
+  </si>
+  <si>
+    <t>Netty心跳源码解析（IdleStateHandler)</t>
+  </si>
+  <si>
+    <t>Eventloop源码</t>
+  </si>
+  <si>
+    <t>handler中加入线程池和Context中添加线程池源码</t>
+  </si>
+  <si>
+    <t>NIO写一个简单的客户端，服务器通讯</t>
+  </si>
+  <si>
     <t>#{}和${}的区别是什么？</t>
   </si>
   <si>
@@ -808,6 +926,57 @@
   </si>
   <si>
     <t>一对一、一对多的关联查询 ？</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>背</t>
+  </si>
+  <si>
+    <t>springboot</t>
+  </si>
+  <si>
+    <t>springcloud</t>
+  </si>
+  <si>
+    <t>netty</t>
+  </si>
+  <si>
+    <t>dubbo</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
+    <t>rocketMQ</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>mybatis</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>jvm</t>
+  </si>
+  <si>
+    <t>designpatter</t>
+  </si>
+  <si>
+    <t>transaction</t>
   </si>
 </sst>
 </file>
@@ -815,12 +984,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,14 +1006,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -859,6 +1029,103 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -873,78 +1140,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -956,7 +1156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -978,28 +1177,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1010,19 +1187,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +1241,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,25 +1289,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,31 +1355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,37 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,9 +1383,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,17 +1431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,6 +1455,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1281,26 +1478,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1309,10 +1486,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1321,19 +1498,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,138 +1519,144 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1485,12 +1668,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1847,36 +2027,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K6" t="s">
@@ -1884,7 +2064,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L7" t="s">
@@ -1895,7 +2075,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L8" t="s">
@@ -1903,7 +2083,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
@@ -1911,17 +2091,17 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="L12" t="s">
@@ -1929,7 +2109,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
@@ -1957,22 +2137,22 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1993,35 +2173,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2032,16 +2212,16 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2055,51 +2235,242 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4"/>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2112,83 +2483,270 @@
   <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>248</v>
+      <c r="A2" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>249</v>
+      <c r="A3" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>250</v>
+      <c r="A4" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>251</v>
+      <c r="A5" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>252</v>
+      <c r="A6" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>253</v>
+      <c r="A7" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>254</v>
+      <c r="A8" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>255</v>
+      <c r="A9" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>256</v>
+      <c r="A10" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>257</v>
+      <c r="A11" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>258</v>
+      <c r="A12" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>259</v>
+      <c r="A13" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>260</v>
+      <c r="A14" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10">
+      <c r="C1" s="1">
+        <v>43864</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43865</v>
+      </c>
+      <c r="E1" s="1">
+        <v>43866</v>
+      </c>
+      <c r="F1" s="1">
+        <v>43867</v>
+      </c>
+      <c r="G1" s="1">
+        <v>43868</v>
+      </c>
+      <c r="H1" s="1">
+        <v>43869</v>
+      </c>
+      <c r="I1" s="1">
+        <v>43870</v>
+      </c>
+      <c r="J1" s="1">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2208,152 +2766,152 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2375,269 +2933,269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="H21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="5"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="H23" s="14"/>
+      <c r="B23" s="5"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="5"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="H25" s="14"/>
+      <c r="B25" s="5"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="5"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="H27" s="14"/>
+      <c r="B27" s="5"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="5"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="14"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="14"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="14"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="14"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="14"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="14"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="14"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="14"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="14"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="14"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="14"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="14"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="14"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="14"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="14"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="14"/>
+      <c r="H51" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2657,214 +3215,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2883,162 +3441,162 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3060,269 +3618,269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="15.625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3348,70 +3906,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3430,68 +3988,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3510,56 +4068,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="784" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="784" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
   <si>
     <t>spring-boot-starter</t>
   </si>
@@ -754,6 +754,12 @@
     <t>内存池原理</t>
   </si>
   <si>
+    <t>Netty中如何保证异步串行无锁化</t>
+  </si>
+  <si>
+    <t>高性能序列化协议protobuf</t>
+  </si>
+  <si>
     <t>什么是 Netty 的零拷贝？</t>
   </si>
   <si>
@@ -763,12 +769,6 @@
     <t>堆外内存申请</t>
   </si>
   <si>
-    <t>Netty中如何保证异步串行无锁化</t>
-  </si>
-  <si>
-    <t>高性能序列化协议protobuf</t>
-  </si>
-  <si>
     <t>为什么使用堆外内存</t>
   </si>
   <si>
@@ -940,10 +940,16 @@
     <t>springcloud</t>
   </si>
   <si>
+    <t>看</t>
+  </si>
+  <si>
     <t>netty</t>
   </si>
   <si>
     <t>dubbo</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>zookeeper</t>
@@ -1178,12 +1184,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1486,153 +1498,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2027,36 +2042,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K6" t="s">
@@ -2064,7 +2079,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="L7" t="s">
@@ -2075,7 +2090,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L8" t="s">
@@ -2083,7 +2098,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
@@ -2091,17 +2106,17 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L12" t="s">
@@ -2109,7 +2124,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
@@ -2137,22 +2152,22 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2173,35 +2188,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2214,261 +2229,261 @@
   <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2484,81 +2499,81 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2573,8 +2588,8 @@
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2612,7 +2627,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2622,8 +2637,29 @@
       <c r="C2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2633,120 +2669,402 @@
       <c r="C3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>309</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>310</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" t="s">
+        <v>301</v>
+      </c>
+      <c r="I9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>312</v>
+      </c>
+      <c r="F11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>313</v>
+      </c>
+      <c r="C12"/>
+      <c r="F12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>314</v>
+      </c>
+      <c r="C13"/>
+      <c r="F13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I13" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>315</v>
+      </c>
+      <c r="C14"/>
+      <c r="F14" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" t="s">
+        <v>301</v>
+      </c>
+      <c r="J14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>316</v>
+      </c>
+      <c r="C15"/>
+      <c r="F15" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I15" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>317</v>
+      </c>
+      <c r="C16"/>
+      <c r="F16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I16" t="s">
+        <v>301</v>
+      </c>
+      <c r="J16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>318</v>
+      </c>
+      <c r="C17"/>
+      <c r="F17" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I17" t="s">
+        <v>301</v>
+      </c>
+      <c r="J17" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2766,152 +3084,152 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2933,269 +3251,269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="H21" s="15"/>
+      <c r="B21" s="6"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="6"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="H23" s="15"/>
+      <c r="B23" s="6"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="H24" s="15"/>
+      <c r="B24" s="6"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="H25" s="15"/>
+      <c r="B25" s="6"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="6"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="H27" s="15"/>
+      <c r="B27" s="6"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="H28" s="15"/>
+      <c r="B28" s="6"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="15"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="15"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="15"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="15"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="15"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="15"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="15"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="15"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="15"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="15"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="15"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="15"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="15"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="15"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="15"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="15"/>
+      <c r="H51" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3215,214 +3533,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3441,162 +3759,162 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3618,269 +3936,269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="15.625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3902,74 +4220,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3988,68 +4306,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4068,56 +4386,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="784" activeTab="10"/>
+    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="784" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="springboot" sheetId="10" r:id="rId1"/>
@@ -990,12 +990,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,14 +1018,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
@@ -1040,8 +1032,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,15 +1090,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1077,45 +1106,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1146,9 +1138,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,23 +1168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,13 +1191,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,145 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1341,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,17 +1382,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1436,6 +1417,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1446,8 +1438,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,30 +1482,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1498,10 +1490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1510,137 +1502,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1662,16 +1654,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1680,12 +1669,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2037,41 +2026,41 @@
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J2" sqref="J2:V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K6" t="s">
@@ -2079,7 +2068,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L7" t="s">
@@ -2090,7 +2079,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L8" t="s">
@@ -2098,7 +2087,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
@@ -2106,17 +2095,17 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="L12" t="s">
@@ -2124,7 +2113,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
@@ -2152,22 +2141,22 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2188,22 +2177,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2229,8 +2218,8 @@
   <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2240,125 +2229,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2930,7 +2919,6 @@
       <c r="B12" t="s">
         <v>313</v>
       </c>
-      <c r="C12"/>
       <c r="F12" t="s">
         <v>301</v>
       </c>
@@ -2954,7 +2942,6 @@
       <c r="B13" t="s">
         <v>314</v>
       </c>
-      <c r="C13"/>
       <c r="F13" t="s">
         <v>301</v>
       </c>
@@ -2978,7 +2965,6 @@
       <c r="B14" t="s">
         <v>315</v>
       </c>
-      <c r="C14"/>
       <c r="F14" t="s">
         <v>301</v>
       </c>
@@ -3002,7 +2988,6 @@
       <c r="B15" t="s">
         <v>316</v>
       </c>
-      <c r="C15"/>
       <c r="F15" t="s">
         <v>301</v>
       </c>
@@ -3026,7 +3011,6 @@
       <c r="B16" t="s">
         <v>317</v>
       </c>
-      <c r="C16"/>
       <c r="F16" t="s">
         <v>301</v>
       </c>
@@ -3050,7 +3034,6 @@
       <c r="B17" t="s">
         <v>318</v>
       </c>
-      <c r="C17"/>
       <c r="F17" t="s">
         <v>301</v>
       </c>
@@ -3076,160 +3059,159 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3245,275 +3227,275 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="H22" s="16"/>
+      <c r="B22" s="5"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="H23" s="16"/>
+      <c r="B23" s="5"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="H24" s="16"/>
+      <c r="B24" s="5"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="H25" s="16"/>
+      <c r="B25" s="5"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="H26" s="16"/>
+      <c r="B26" s="5"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="H27" s="16"/>
+      <c r="B27" s="5"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="H28" s="16"/>
+      <c r="B28" s="5"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="16"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="16"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="16"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="16"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="16"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="16"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="16"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="16"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="16"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="16"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="16"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="16"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="16"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="16"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="16"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="16"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="16"/>
+      <c r="H51" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3533,211 +3515,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B34" s="4"/>
@@ -3759,162 +3741,162 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3936,7 +3918,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="7" width="9" style="4"/>
     <col min="8" max="8" width="15.625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
@@ -3958,7 +3940,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3998,7 +3980,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4038,12 +4020,12 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4063,12 +4045,12 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4093,7 +4075,7 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4123,82 +4105,82 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4224,70 +4206,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4306,68 +4288,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4386,56 +4368,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="784" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="868" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="springboot" sheetId="10" r:id="rId1"/>
-    <sheet name="集合" sheetId="4" r:id="rId2"/>
-    <sheet name="多线程" sheetId="3" r:id="rId3"/>
-    <sheet name="redis" sheetId="5" r:id="rId4"/>
-    <sheet name="zk" sheetId="1" r:id="rId5"/>
-    <sheet name="dubbo" sheetId="2" r:id="rId6"/>
-    <sheet name="Kafka" sheetId="6" r:id="rId7"/>
-    <sheet name="Spring" sheetId="7" r:id="rId8"/>
+    <sheet name="集合" sheetId="4" r:id="rId1"/>
+    <sheet name="多线程" sheetId="3" r:id="rId2"/>
+    <sheet name="redis" sheetId="5" r:id="rId3"/>
+    <sheet name="zk" sheetId="1" r:id="rId4"/>
+    <sheet name="dubbo" sheetId="2" r:id="rId5"/>
+    <sheet name="Kafka" sheetId="6" r:id="rId6"/>
+    <sheet name="Spring" sheetId="7" r:id="rId7"/>
+    <sheet name="springboot" sheetId="10" r:id="rId8"/>
     <sheet name="分布式事务" sheetId="8" r:id="rId9"/>
     <sheet name="设计模式" sheetId="9" r:id="rId10"/>
     <sheet name="Netty" sheetId="11" r:id="rId11"/>
@@ -28,6 +28,612 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
   <si>
+    <t>ArrayList clone()方法</t>
+  </si>
+  <si>
+    <t>ArrayList add(E e)方法</t>
+  </si>
+  <si>
+    <t>ArrayList 扩容</t>
+  </si>
+  <si>
+    <t>ArrayList优缺点</t>
+  </si>
+  <si>
+    <t>ArrayList和LinkedList区别</t>
+  </si>
+  <si>
+    <t>什么情况下你会使用ArrayList？什么时候你会选择LinkedList？</t>
+  </si>
+  <si>
+    <t>当传递ArrayList到某个方法中，或者某个方法返回ArrayList，什么时候要考虑安全隐患？如何修复安全违规这个问题呢？</t>
+  </si>
+  <si>
+    <t>在索引中ArrayList的增加或者删除某个对象的运行过程？效率很低吗？解释一下为什么？</t>
+  </si>
+  <si>
+    <t>线程安全性</t>
+  </si>
+  <si>
+    <t>ArrayList LinkedList 插入和删除是否受元素位置的影响：</t>
+  </si>
+  <si>
+    <t>ArrayList LinkedList是否支持快速随机访问</t>
+  </si>
+  <si>
+    <t>ArrayList LinkedList内存空间占用</t>
+  </si>
+  <si>
+    <t>LinkedList 介绍</t>
+  </si>
+  <si>
+    <t>LinkedList Node结点</t>
+  </si>
+  <si>
+    <t>LinkedList add</t>
+  </si>
+  <si>
+    <t>LinkedList remove</t>
+  </si>
+  <si>
+    <t>LinkedList set</t>
+  </si>
+  <si>
+    <t>LinkedList和ArrayList的大致区别</t>
+  </si>
+  <si>
+    <t>HashMap 简单介绍</t>
+  </si>
+  <si>
+    <t>HashMap 扩容</t>
+  </si>
+  <si>
+    <t>HashMap PUT</t>
+  </si>
+  <si>
+    <t>HashMap GET</t>
+  </si>
+  <si>
+    <t>HashMap Remove</t>
+  </si>
+  <si>
+    <t>HashMap 线程安全问题</t>
+  </si>
+  <si>
+    <t>HashMap 哈希冲突</t>
+  </si>
+  <si>
+    <t>LinkedHashMap 应用场景</t>
+  </si>
+  <si>
+    <t>LinkedHashMap HashMap扩容比较</t>
+  </si>
+  <si>
+    <t>HashTable 特点</t>
+  </si>
+  <si>
+    <t>TreeMap 红黑树规则，基本操作</t>
+  </si>
+  <si>
+    <t>ThreadLocal</t>
+  </si>
+  <si>
+    <t>ThreadLocal如何实现数据隔离</t>
+  </si>
+  <si>
+    <t>ThreadLoalMap</t>
+  </si>
+  <si>
+    <t>ThreadLoalMap没有链表结构，那发生hash冲突了怎么办？</t>
+  </si>
+  <si>
+    <t>ThreadLocal可能导致内存泄漏，为什么？</t>
+  </si>
+  <si>
+    <t>ThreadLocal如何避免内存泄露</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap有哪些构造函数？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap使用什么技术来保证线程安全？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap的get方法是否要加锁，为什么？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap迭代器是强一致性还是弱一致性？HashMap呢？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap1.7和1.8的区别：</t>
+  </si>
+  <si>
+    <t>为啥 ConcurrentHashMap 读操作不需要加锁？</t>
+  </si>
+  <si>
+    <t>你对volatile关键字的理解</t>
+  </si>
+  <si>
+    <t>synchronzied关键词的使用</t>
+  </si>
+  <si>
+    <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
+  </si>
+  <si>
+    <t>CyclicBarrier是什么？</t>
+  </si>
+  <si>
+    <t>CountDownLatch</t>
+  </si>
+  <si>
+    <t>CyclicBarrier和CountDownLatch的区别</t>
+  </si>
+  <si>
+    <t>Java中如何让多线程按照自己指定的顺序执行？</t>
+  </si>
+  <si>
+    <t>Thread.join的实现原理</t>
+  </si>
+  <si>
+    <t>join为什么阻塞的是主线程呢?</t>
+  </si>
+  <si>
+    <t>为什么previousThread线程执行完毕就能够唤醒住线程呢？或者说是在什么时候唤醒的？</t>
+  </si>
+  <si>
+    <t>Callable</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>FutureTask</t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>什么是线程池：</t>
+  </si>
+  <si>
+    <t>一个线程池包括以下四个基本组成部分</t>
+  </si>
+  <si>
+    <t>常见线程池</t>
+  </si>
+  <si>
+    <t>线程池有哪些重要的参数？</t>
+  </si>
+  <si>
+    <t>在Java中Executor和Executors的区别</t>
+  </si>
+  <si>
+    <t>线程池的技术原理是什么</t>
+  </si>
+  <si>
+    <t>java多线程有哪些常见的锁，各自用法是什么？</t>
+  </si>
+  <si>
+    <t>ExecutorService</t>
+  </si>
+  <si>
+    <t>并发容器</t>
+  </si>
+  <si>
+    <t>项目中缓存是如何使用的？为什么要用缓存？</t>
+  </si>
+  <si>
+    <t>缓存使用不当会造成什么后果？</t>
+  </si>
+  <si>
+    <t>redis 和 memcached 有什么区别</t>
+  </si>
+  <si>
+    <t>redis 的线程模型</t>
+  </si>
+  <si>
+    <t>redis 都有哪些数据类型？</t>
+  </si>
+  <si>
+    <t>分别在哪些场景下使用比较合适？</t>
+  </si>
+  <si>
+    <t>redis 的过期策略都有哪些？</t>
+  </si>
+  <si>
+    <t>内存淘汰机制</t>
+  </si>
+  <si>
+    <t>为啥 redis 单线程模型也能效率这么高？</t>
+  </si>
+  <si>
+    <t>如何保证 redis 的高并发和高可用？</t>
+  </si>
+  <si>
+    <t>Redis 主从架构（高可用）</t>
+  </si>
+  <si>
+    <t>redis replication 的核心机制</t>
+  </si>
+  <si>
+    <t>redis 如何才能做到高可用</t>
+  </si>
+  <si>
+    <t>redis 主从复制的核心原理</t>
+  </si>
+  <si>
+    <t>哨兵功能</t>
+  </si>
+  <si>
+    <t>redis 哨兵主备切换的数据丢失问题</t>
+  </si>
+  <si>
+    <t>数据丢失问题的解决方案</t>
+  </si>
+  <si>
+    <t>sdown 和 odown 转换机制</t>
+  </si>
+  <si>
+    <t>哨兵集群的自动发现机制</t>
+  </si>
+  <si>
+    <t>slave 配置的自动纠正</t>
+  </si>
+  <si>
+    <t>slave-&gt;master 选举算法</t>
+  </si>
+  <si>
+    <t>redis 持久化的两种方式</t>
+  </si>
+  <si>
+    <t>RDB优点</t>
+  </si>
+  <si>
+    <t>AOF 优缺点</t>
+  </si>
+  <si>
+    <t>RDB 和 AOF 到底该如何选择</t>
+  </si>
+  <si>
+    <t>redis cluster 介绍</t>
+  </si>
+  <si>
+    <t>节点间的内部通信机制</t>
+  </si>
+  <si>
+    <t>gossip 协议</t>
+  </si>
+  <si>
+    <t>ping 消息深入</t>
+  </si>
+  <si>
+    <t>分布式寻址算法</t>
+  </si>
+  <si>
+    <t>hash 算法介绍</t>
+  </si>
+  <si>
+    <t>一致性 hash 算法</t>
+  </si>
+  <si>
+    <t>Hash环的数据倾斜问题</t>
+  </si>
+  <si>
+    <t>redis cluster 的高可用与主备切换原理</t>
+  </si>
+  <si>
+    <t>ZooKeeper是什么</t>
+  </si>
+  <si>
+    <t>Zookeeper的典型应用场景</t>
+  </si>
+  <si>
+    <t>ZooKeeper提供了什么</t>
+  </si>
+  <si>
+    <t>Zookeeper文件系统</t>
+  </si>
+  <si>
+    <t>ZooKeeper 分布式锁实现原理</t>
+  </si>
+  <si>
+    <t>ZAB协议</t>
+  </si>
+  <si>
+    <t>ZAB和Paxos算法的联系与区别？</t>
+  </si>
+  <si>
+    <t>服务器角色</t>
+  </si>
+  <si>
+    <t>Zookeeper 下 Server工作状态</t>
+  </si>
+  <si>
+    <t>ZXID</t>
+  </si>
+  <si>
+    <t>Leader 选举</t>
+  </si>
+  <si>
+    <t>数据同步</t>
+  </si>
+  <si>
+    <t>四种类型的数据节点 Znode</t>
+  </si>
+  <si>
+    <t>Zookeeper Watcher 机制 -- 数据变更通知</t>
+  </si>
+  <si>
+    <t>客户端注册Watcher实现</t>
+  </si>
+  <si>
+    <t>服务端处理Watcher实现</t>
+  </si>
+  <si>
+    <t>客户端回调Watcher</t>
+  </si>
+  <si>
+    <t>ACL（Access Control List）访问控制列表，权限控制机制</t>
+  </si>
+  <si>
+    <t>Chroot特性</t>
+  </si>
+  <si>
+    <t>会话管理</t>
+  </si>
+  <si>
+    <t>zookeeper是如何保证事务的顺序一致性的？</t>
+  </si>
+  <si>
+    <t>分布式集群中为什么会有Master？</t>
+  </si>
+  <si>
+    <t>zk节点宕机如何处理？</t>
+  </si>
+  <si>
+    <t>zookeeper负载均衡和nginx负载均衡区别</t>
+  </si>
+  <si>
+    <t>Zookeeper有哪几种几种部署模式？</t>
+  </si>
+  <si>
+    <t>集群最少要几台机器，集群规则是怎样的?</t>
+  </si>
+  <si>
+    <t>集群支持动态添加机器吗？</t>
+  </si>
+  <si>
+    <t>Zookeeper对节点的watch监听通知是永久的吗？为什么不是永久的?</t>
+  </si>
+  <si>
+    <t>Zookeeper的java客户端都有哪些？</t>
+  </si>
+  <si>
+    <t>chubby是什么，和zookeeper比你怎么看？</t>
+  </si>
+  <si>
+    <t>说几个zookeeper常用的命令。</t>
+  </si>
+  <si>
+    <t>Dubbo 和 Spring Cloud 有什么区别？</t>
+  </si>
+  <si>
+    <t>dubbo都支持什么协议，推荐用哪种？</t>
+  </si>
+  <si>
+    <t>Dubbo需要 Web 容器吗？</t>
+  </si>
+  <si>
+    <t>Dubbo内置了哪几种服务容器？</t>
+  </si>
+  <si>
+    <t>Dubbo里面有哪几种节点角色？</t>
+  </si>
+  <si>
+    <t>画一画服务注册与发现的流程图</t>
+  </si>
+  <si>
+    <t>Dubbo默认使用什么注册中心，还有别的选择吗？</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种配置方式？</t>
+  </si>
+  <si>
+    <t>Dubbo 核心的配置有哪些？</t>
+  </si>
+  <si>
+    <t>在 Provider 上可以配置的 Consumer 端的属性有哪些？</t>
+  </si>
+  <si>
+    <t>Dubbo启动时如果依赖的服务不可用会怎样？</t>
+  </si>
+  <si>
+    <t>Dubbo推荐使用什么序列化框架，你知道的还有哪些？</t>
+  </si>
+  <si>
+    <t>Dubbo默认使用的是什么通信框架，还有别的选择吗？</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种集群容错方案，默认是哪种？</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种负载均衡策略，默认是哪种？</t>
+  </si>
+  <si>
+    <t>注册了多个同一样的服务，如果测试指定的某一个服务呢？</t>
+  </si>
+  <si>
+    <t>Dubbo支持服务多协议吗？</t>
+  </si>
+  <si>
+    <t>当一个服务接口有多种实现时怎么做？</t>
+  </si>
+  <si>
+    <t>服务上线怎么兼容旧版本？</t>
+  </si>
+  <si>
+    <t>Dubbo可以对结果进行缓存吗？</t>
+  </si>
+  <si>
+    <t>Dubbo服务之间的调用是阻塞的吗？</t>
+  </si>
+  <si>
+    <t>Dubbo支持分布式事务吗？</t>
+  </si>
+  <si>
+    <t>Dubbo telnet 命令能做什么？</t>
+  </si>
+  <si>
+    <t>Dubbo支持服务降级吗？</t>
+  </si>
+  <si>
+    <t>Dubbo如何优雅停机</t>
+  </si>
+  <si>
+    <t>服务提供者能实现失效踢出是什么原理？</t>
+  </si>
+  <si>
+    <t>如何解决服务调用链过长的问题？</t>
+  </si>
+  <si>
+    <t>服务读写推荐的容错策略是怎样的？</t>
+  </si>
+  <si>
+    <t>Dubbo必须依赖的包有哪些？</t>
+  </si>
+  <si>
+    <t>Dubbo的管理控制台能做什么？</t>
+  </si>
+  <si>
+    <t>说说 Dubbo 服务暴露的过程。</t>
+  </si>
+  <si>
+    <t>Dubbo 停止维护了吗？</t>
+  </si>
+  <si>
+    <t>Dubbo 和 Dubbox 有什么区别？</t>
+  </si>
+  <si>
+    <t>你还了解别的分布式框架吗？</t>
+  </si>
+  <si>
+    <t>Dubbo 能集成 Spring Boot 吗？</t>
+  </si>
+  <si>
+    <t>在使用过程中都遇到了些什么问题？</t>
+  </si>
+  <si>
+    <t>dubbo 支持哪些通信协议？</t>
+  </si>
+  <si>
+    <t>Hessian 的数据结构</t>
+  </si>
+  <si>
+    <t>为什么 PB 的效率是最高的？</t>
+  </si>
+  <si>
+    <t>dubbo 负载均衡策略</t>
+  </si>
+  <si>
+    <t>dubbo 集群容错策略</t>
+  </si>
+  <si>
+    <t>dubbo动态代理策略</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>Java spi 思想的体现</t>
+  </si>
+  <si>
+    <t>dubbo 的 spi 思想</t>
+  </si>
+  <si>
+    <t>如何自己扩展 dubbo 中的组件</t>
+  </si>
+  <si>
+    <t>服务降级</t>
+  </si>
+  <si>
+    <t>失败重试和超时重试</t>
+  </si>
+  <si>
+    <t>幂等性</t>
+  </si>
+  <si>
+    <t>保证幂等性主要解决方法</t>
+  </si>
+  <si>
+    <t>接口请求的顺序性如何保证</t>
+  </si>
+  <si>
+    <t>自己设计一个类似 Dubbo 的 RPC 框架</t>
+  </si>
+  <si>
+    <t>为什么使用消息队列,消息队列有什么优点？</t>
+  </si>
+  <si>
+    <t>消息队列有什么缺点</t>
+  </si>
+  <si>
+    <t>各种消息队列的优缺点</t>
+  </si>
+  <si>
+    <t>MQ使用建议总结</t>
+  </si>
+  <si>
+    <t>Kafka 的高可用性</t>
+  </si>
+  <si>
+    <t>如何保证消息不被重复消费？或者说，如何保证消息消费的幂等性？</t>
+  </si>
+  <si>
+    <t>如何保证消息的可靠性传输？或者说，如何处理消息丢失的问题？</t>
+  </si>
+  <si>
+    <t>如何保证消息的顺序性？</t>
+  </si>
+  <si>
+    <t>大量消息在 mq 里积压了几个小时了还没解决</t>
+  </si>
+  <si>
+    <t>mq 中的消息过期失效了</t>
+  </si>
+  <si>
+    <t>如果让你写一个消息队列，该如何进行架构设计？说一下你的思路。</t>
+  </si>
+  <si>
+    <t>Spring中的声明式事务</t>
+  </si>
+  <si>
+    <t>Spring事务隔离级别</t>
+  </si>
+  <si>
+    <t>Spring的AOP实现原理</t>
+  </si>
+  <si>
+    <t>什么时候使用cglib，什么时候使用动态代理</t>
+  </si>
+  <si>
+    <t>JDK动态代理</t>
+  </si>
+  <si>
+    <t>Cglib</t>
+  </si>
+  <si>
+    <t>RPC</t>
+  </si>
+  <si>
+    <t>Spring之bean的生命周期</t>
+  </si>
+  <si>
+    <t>Spring IOC是如何实现的，如何加载Bean，如何创建单例Bean？</t>
+  </si>
+  <si>
+    <t>Spring中ApplicationContext和beanfactory区别</t>
+  </si>
+  <si>
     <t>spring-boot-starter</t>
   </si>
   <si>
@@ -107,612 +713,6 @@
   </si>
   <si>
     <t>启动流程</t>
-  </si>
-  <si>
-    <t>ArrayList clone()方法</t>
-  </si>
-  <si>
-    <t>ArrayList add(E e)方法</t>
-  </si>
-  <si>
-    <t>ArrayList 扩容</t>
-  </si>
-  <si>
-    <t>ArrayList优缺点</t>
-  </si>
-  <si>
-    <t>ArrayList和LinkedList区别</t>
-  </si>
-  <si>
-    <t>什么情况下你会使用ArrayList？什么时候你会选择LinkedList？</t>
-  </si>
-  <si>
-    <t>当传递ArrayList到某个方法中，或者某个方法返回ArrayList，什么时候要考虑安全隐患？如何修复安全违规这个问题呢？</t>
-  </si>
-  <si>
-    <t>在索引中ArrayList的增加或者删除某个对象的运行过程？效率很低吗？解释一下为什么？</t>
-  </si>
-  <si>
-    <t>线程安全性</t>
-  </si>
-  <si>
-    <t>ArrayList LinkedList 插入和删除是否受元素位置的影响：</t>
-  </si>
-  <si>
-    <t>ArrayList LinkedList是否支持快速随机访问</t>
-  </si>
-  <si>
-    <t>ArrayList LinkedList内存空间占用</t>
-  </si>
-  <si>
-    <t>LinkedList 介绍</t>
-  </si>
-  <si>
-    <t>LinkedList Node结点</t>
-  </si>
-  <si>
-    <t>LinkedList add</t>
-  </si>
-  <si>
-    <t>LinkedList remove</t>
-  </si>
-  <si>
-    <t>LinkedList set</t>
-  </si>
-  <si>
-    <t>LinkedList和ArrayList的大致区别</t>
-  </si>
-  <si>
-    <t>HashMap 简单介绍</t>
-  </si>
-  <si>
-    <t>HashMap 扩容</t>
-  </si>
-  <si>
-    <t>HashMap PUT</t>
-  </si>
-  <si>
-    <t>HashMap GET</t>
-  </si>
-  <si>
-    <t>HashMap Remove</t>
-  </si>
-  <si>
-    <t>HashMap 线程安全问题</t>
-  </si>
-  <si>
-    <t>HashMap 哈希冲突</t>
-  </si>
-  <si>
-    <t>LinkedHashMap 应用场景</t>
-  </si>
-  <si>
-    <t>LinkedHashMap HashMap扩容比较</t>
-  </si>
-  <si>
-    <t>HashTable 特点</t>
-  </si>
-  <si>
-    <t>TreeMap 红黑树规则，基本操作</t>
-  </si>
-  <si>
-    <t>ThreadLocal</t>
-  </si>
-  <si>
-    <t>ThreadLocal如何实现数据隔离</t>
-  </si>
-  <si>
-    <t>ThreadLoalMap</t>
-  </si>
-  <si>
-    <t>ThreadLoalMap没有链表结构，那发生hash冲突了怎么办？</t>
-  </si>
-  <si>
-    <t>ThreadLocal可能导致内存泄漏，为什么？</t>
-  </si>
-  <si>
-    <t>ThreadLocal如何避免内存泄露</t>
-  </si>
-  <si>
-    <t>ConcurrentHashMap有哪些构造函数？</t>
-  </si>
-  <si>
-    <t>ConcurrentHashMap使用什么技术来保证线程安全？</t>
-  </si>
-  <si>
-    <t>ConcurrentHashMap的get方法是否要加锁，为什么？</t>
-  </si>
-  <si>
-    <t>ConcurrentHashMap迭代器是强一致性还是弱一致性？HashMap呢？</t>
-  </si>
-  <si>
-    <t>ConcurrentHashMap1.7和1.8的区别：</t>
-  </si>
-  <si>
-    <t>为啥 ConcurrentHashMap 读操作不需要加锁？</t>
-  </si>
-  <si>
-    <t>你对volatile关键字的理解</t>
-  </si>
-  <si>
-    <t>synchronzied关键词的使用</t>
-  </si>
-  <si>
-    <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
-  </si>
-  <si>
-    <t>CyclicBarrier是什么？</t>
-  </si>
-  <si>
-    <t>CountDownLatch</t>
-  </si>
-  <si>
-    <t>CyclicBarrier和CountDownLatch的区别</t>
-  </si>
-  <si>
-    <t>Java中如何让多线程按照自己指定的顺序执行？</t>
-  </si>
-  <si>
-    <t>Thread.join的实现原理</t>
-  </si>
-  <si>
-    <t>join为什么阻塞的是主线程呢?</t>
-  </si>
-  <si>
-    <t>为什么previousThread线程执行完毕就能够唤醒住线程呢？或者说是在什么时候唤醒的？</t>
-  </si>
-  <si>
-    <t>Callable</t>
-  </si>
-  <si>
-    <t>Future</t>
-  </si>
-  <si>
-    <t>FutureTask</t>
-  </si>
-  <si>
-    <t>interrupt</t>
-  </si>
-  <si>
-    <t>什么是线程池：</t>
-  </si>
-  <si>
-    <t>一个线程池包括以下四个基本组成部分</t>
-  </si>
-  <si>
-    <t>常见线程池</t>
-  </si>
-  <si>
-    <t>线程池有哪些重要的参数？</t>
-  </si>
-  <si>
-    <t>在Java中Executor和Executors的区别</t>
-  </si>
-  <si>
-    <t>线程池的技术原理是什么</t>
-  </si>
-  <si>
-    <t>java多线程有哪些常见的锁，各自用法是什么？</t>
-  </si>
-  <si>
-    <t>ExecutorService</t>
-  </si>
-  <si>
-    <t>并发容器</t>
-  </si>
-  <si>
-    <t>项目中缓存是如何使用的？为什么要用缓存？</t>
-  </si>
-  <si>
-    <t>缓存使用不当会造成什么后果？</t>
-  </si>
-  <si>
-    <t>redis 和 memcached 有什么区别</t>
-  </si>
-  <si>
-    <t>redis 的线程模型</t>
-  </si>
-  <si>
-    <t>redis 都有哪些数据类型？</t>
-  </si>
-  <si>
-    <t>分别在哪些场景下使用比较合适？</t>
-  </si>
-  <si>
-    <t>redis 的过期策略都有哪些？</t>
-  </si>
-  <si>
-    <t>内存淘汰机制</t>
-  </si>
-  <si>
-    <t>为啥 redis 单线程模型也能效率这么高？</t>
-  </si>
-  <si>
-    <t>如何保证 redis 的高并发和高可用？</t>
-  </si>
-  <si>
-    <t>Redis 主从架构（高可用）</t>
-  </si>
-  <si>
-    <t>redis replication 的核心机制</t>
-  </si>
-  <si>
-    <t>redis 如何才能做到高可用</t>
-  </si>
-  <si>
-    <t>redis 主从复制的核心原理</t>
-  </si>
-  <si>
-    <t>哨兵功能</t>
-  </si>
-  <si>
-    <t>redis 哨兵主备切换的数据丢失问题</t>
-  </si>
-  <si>
-    <t>数据丢失问题的解决方案</t>
-  </si>
-  <si>
-    <t>sdown 和 odown 转换机制</t>
-  </si>
-  <si>
-    <t>哨兵集群的自动发现机制</t>
-  </si>
-  <si>
-    <t>slave 配置的自动纠正</t>
-  </si>
-  <si>
-    <t>slave-&gt;master 选举算法</t>
-  </si>
-  <si>
-    <t>redis 持久化的两种方式</t>
-  </si>
-  <si>
-    <t>RDB优点</t>
-  </si>
-  <si>
-    <t>AOF 优缺点</t>
-  </si>
-  <si>
-    <t>RDB 和 AOF 到底该如何选择</t>
-  </si>
-  <si>
-    <t>redis cluster 介绍</t>
-  </si>
-  <si>
-    <t>节点间的内部通信机制</t>
-  </si>
-  <si>
-    <t>gossip 协议</t>
-  </si>
-  <si>
-    <t>ping 消息深入</t>
-  </si>
-  <si>
-    <t>分布式寻址算法</t>
-  </si>
-  <si>
-    <t>hash 算法介绍</t>
-  </si>
-  <si>
-    <t>一致性 hash 算法</t>
-  </si>
-  <si>
-    <t>Hash环的数据倾斜问题</t>
-  </si>
-  <si>
-    <t>redis cluster 的高可用与主备切换原理</t>
-  </si>
-  <si>
-    <t>ZooKeeper是什么</t>
-  </si>
-  <si>
-    <t>Zookeeper的典型应用场景</t>
-  </si>
-  <si>
-    <t>ZooKeeper提供了什么</t>
-  </si>
-  <si>
-    <t>Zookeeper文件系统</t>
-  </si>
-  <si>
-    <t>ZooKeeper 分布式锁实现原理</t>
-  </si>
-  <si>
-    <t>ZAB协议</t>
-  </si>
-  <si>
-    <t>ZAB和Paxos算法的联系与区别？</t>
-  </si>
-  <si>
-    <t>服务器角色</t>
-  </si>
-  <si>
-    <t>Zookeeper 下 Server工作状态</t>
-  </si>
-  <si>
-    <t>ZXID</t>
-  </si>
-  <si>
-    <t>Leader 选举</t>
-  </si>
-  <si>
-    <t>数据同步</t>
-  </si>
-  <si>
-    <t>四种类型的数据节点 Znode</t>
-  </si>
-  <si>
-    <t>Zookeeper Watcher 机制 -- 数据变更通知</t>
-  </si>
-  <si>
-    <t>客户端注册Watcher实现</t>
-  </si>
-  <si>
-    <t>服务端处理Watcher实现</t>
-  </si>
-  <si>
-    <t>客户端回调Watcher</t>
-  </si>
-  <si>
-    <t>ACL（Access Control List）访问控制列表，权限控制机制</t>
-  </si>
-  <si>
-    <t>Chroot特性</t>
-  </si>
-  <si>
-    <t>会话管理</t>
-  </si>
-  <si>
-    <t>zookeeper是如何保证事务的顺序一致性的？</t>
-  </si>
-  <si>
-    <t>分布式集群中为什么会有Master？</t>
-  </si>
-  <si>
-    <t>zk节点宕机如何处理？</t>
-  </si>
-  <si>
-    <t>zookeeper负载均衡和nginx负载均衡区别</t>
-  </si>
-  <si>
-    <t>Zookeeper有哪几种几种部署模式？</t>
-  </si>
-  <si>
-    <t>集群最少要几台机器，集群规则是怎样的?</t>
-  </si>
-  <si>
-    <t>集群支持动态添加机器吗？</t>
-  </si>
-  <si>
-    <t>Zookeeper对节点的watch监听通知是永久的吗？为什么不是永久的?</t>
-  </si>
-  <si>
-    <t>Zookeeper的java客户端都有哪些？</t>
-  </si>
-  <si>
-    <t>chubby是什么，和zookeeper比你怎么看？</t>
-  </si>
-  <si>
-    <t>说几个zookeeper常用的命令。</t>
-  </si>
-  <si>
-    <t>Dubbo 和 Spring Cloud 有什么区别？</t>
-  </si>
-  <si>
-    <t>dubbo都支持什么协议，推荐用哪种？</t>
-  </si>
-  <si>
-    <t>Dubbo需要 Web 容器吗？</t>
-  </si>
-  <si>
-    <t>Dubbo内置了哪几种服务容器？</t>
-  </si>
-  <si>
-    <t>Dubbo里面有哪几种节点角色？</t>
-  </si>
-  <si>
-    <t>画一画服务注册与发现的流程图</t>
-  </si>
-  <si>
-    <t>Dubbo默认使用什么注册中心，还有别的选择吗？</t>
-  </si>
-  <si>
-    <t>Dubbo有哪几种配置方式？</t>
-  </si>
-  <si>
-    <t>Dubbo 核心的配置有哪些？</t>
-  </si>
-  <si>
-    <t>在 Provider 上可以配置的 Consumer 端的属性有哪些？</t>
-  </si>
-  <si>
-    <t>Dubbo启动时如果依赖的服务不可用会怎样？</t>
-  </si>
-  <si>
-    <t>Dubbo推荐使用什么序列化框架，你知道的还有哪些？</t>
-  </si>
-  <si>
-    <t>Dubbo默认使用的是什么通信框架，还有别的选择吗？</t>
-  </si>
-  <si>
-    <t>Dubbo有哪几种集群容错方案，默认是哪种？</t>
-  </si>
-  <si>
-    <t>Dubbo有哪几种负载均衡策略，默认是哪种？</t>
-  </si>
-  <si>
-    <t>注册了多个同一样的服务，如果测试指定的某一个服务呢？</t>
-  </si>
-  <si>
-    <t>Dubbo支持服务多协议吗？</t>
-  </si>
-  <si>
-    <t>当一个服务接口有多种实现时怎么做？</t>
-  </si>
-  <si>
-    <t>服务上线怎么兼容旧版本？</t>
-  </si>
-  <si>
-    <t>Dubbo可以对结果进行缓存吗？</t>
-  </si>
-  <si>
-    <t>Dubbo服务之间的调用是阻塞的吗？</t>
-  </si>
-  <si>
-    <t>Dubbo支持分布式事务吗？</t>
-  </si>
-  <si>
-    <t>Dubbo telnet 命令能做什么？</t>
-  </si>
-  <si>
-    <t>Dubbo支持服务降级吗？</t>
-  </si>
-  <si>
-    <t>Dubbo如何优雅停机</t>
-  </si>
-  <si>
-    <t>服务提供者能实现失效踢出是什么原理？</t>
-  </si>
-  <si>
-    <t>如何解决服务调用链过长的问题？</t>
-  </si>
-  <si>
-    <t>服务读写推荐的容错策略是怎样的？</t>
-  </si>
-  <si>
-    <t>Dubbo必须依赖的包有哪些？</t>
-  </si>
-  <si>
-    <t>Dubbo的管理控制台能做什么？</t>
-  </si>
-  <si>
-    <t>说说 Dubbo 服务暴露的过程。</t>
-  </si>
-  <si>
-    <t>Dubbo 停止维护了吗？</t>
-  </si>
-  <si>
-    <t>Dubbo 和 Dubbox 有什么区别？</t>
-  </si>
-  <si>
-    <t>你还了解别的分布式框架吗？</t>
-  </si>
-  <si>
-    <t>Dubbo 能集成 Spring Boot 吗？</t>
-  </si>
-  <si>
-    <t>在使用过程中都遇到了些什么问题？</t>
-  </si>
-  <si>
-    <t>dubbo 支持哪些通信协议？</t>
-  </si>
-  <si>
-    <t>Hessian 的数据结构</t>
-  </si>
-  <si>
-    <t>为什么 PB 的效率是最高的？</t>
-  </si>
-  <si>
-    <t>dubbo 负载均衡策略</t>
-  </si>
-  <si>
-    <t>dubbo 集群容错策略</t>
-  </si>
-  <si>
-    <t>dubbo动态代理策略</t>
-  </si>
-  <si>
-    <t>spi</t>
-  </si>
-  <si>
-    <t>Java spi 思想的体现</t>
-  </si>
-  <si>
-    <t>dubbo 的 spi 思想</t>
-  </si>
-  <si>
-    <t>如何自己扩展 dubbo 中的组件</t>
-  </si>
-  <si>
-    <t>服务降级</t>
-  </si>
-  <si>
-    <t>失败重试和超时重试</t>
-  </si>
-  <si>
-    <t>幂等性</t>
-  </si>
-  <si>
-    <t>保证幂等性主要解决方法</t>
-  </si>
-  <si>
-    <t>接口请求的顺序性如何保证</t>
-  </si>
-  <si>
-    <t>自己设计一个类似 Dubbo 的 RPC 框架</t>
-  </si>
-  <si>
-    <t>为什么使用消息队列,消息队列有什么优点？</t>
-  </si>
-  <si>
-    <t>消息队列有什么缺点</t>
-  </si>
-  <si>
-    <t>各种消息队列的优缺点</t>
-  </si>
-  <si>
-    <t>MQ使用建议总结</t>
-  </si>
-  <si>
-    <t>Kafka 的高可用性</t>
-  </si>
-  <si>
-    <t>如何保证消息不被重复消费？或者说，如何保证消息消费的幂等性？</t>
-  </si>
-  <si>
-    <t>如何保证消息的可靠性传输？或者说，如何处理消息丢失的问题？</t>
-  </si>
-  <si>
-    <t>如何保证消息的顺序性？</t>
-  </si>
-  <si>
-    <t>大量消息在 mq 里积压了几个小时了还没解决</t>
-  </si>
-  <si>
-    <t>mq 中的消息过期失效了</t>
-  </si>
-  <si>
-    <t>如果让你写一个消息队列，该如何进行架构设计？说一下你的思路。</t>
-  </si>
-  <si>
-    <t>Spring中的声明式事务</t>
-  </si>
-  <si>
-    <t>Spring事务隔离级别</t>
-  </si>
-  <si>
-    <t>Spring的AOP实现原理</t>
-  </si>
-  <si>
-    <t>什么时候使用cglib，什么时候使用动态代理</t>
-  </si>
-  <si>
-    <t>JDK动态代理</t>
-  </si>
-  <si>
-    <t>Cglib</t>
-  </si>
-  <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>Spring之bean的生命周期</t>
-  </si>
-  <si>
-    <t>Spring IOC是如何实现的，如何加载Bean，如何创建单例Bean？</t>
-  </si>
-  <si>
-    <t>Spring中ApplicationContext和beanfactory区别</t>
   </si>
   <si>
     <t>分布式事务的实现主要方案</t>
@@ -990,10 +990,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1032,24 +1032,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,7 +1047,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,30 +1076,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,15 +1084,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,28 +1099,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1160,9 +1106,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,6 +1116,61 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,13 +1191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,13 +1215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,19 +1239,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,37 +1263,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,43 +1293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,13 +1311,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,13 +1341,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,56 +1382,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1448,7 +1398,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,16 +1449,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,10 +1490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,133 +1502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1660,13 +1660,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2023,145 +2023,165 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:V29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="11" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="11" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L8" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L9" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="11" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="11" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="14:14">
-      <c r="N14" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="13:13">
-      <c r="M17" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="14:14">
-      <c r="N19" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="14:14">
-      <c r="N20" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="11" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="11" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="11" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="11" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2468,7 +2488,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -3059,176 +3079,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3239,213 +3093,213 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="14" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="14" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
-        <v>62</v>
+      <c r="A7" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
-        <v>63</v>
+      <c r="A8" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
-        <v>64</v>
+      <c r="A9" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="13" t="s">
-        <v>65</v>
+      <c r="A10" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
-        <v>66</v>
+      <c r="A11" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
-        <v>67</v>
+      <c r="A12" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="13" t="s">
-        <v>68</v>
+      <c r="A13" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
-        <v>69</v>
+      <c r="A14" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="13" t="s">
-        <v>70</v>
+      <c r="A15" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13" t="s">
-        <v>71</v>
+      <c r="A16" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
-        <v>72</v>
+      <c r="A17" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="13" t="s">
-        <v>73</v>
+      <c r="A18" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="13" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="13" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="13" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="13" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5"/>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="13" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5"/>
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="13" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="13" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B26" s="5"/>
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="13" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="13" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="13" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="13" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="13" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="13" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="13" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="13" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="13" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="H35" s="15"/>
     </row>
@@ -3504,7 +3358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C34"/>
@@ -3520,207 +3374,207 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="12" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="12" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="12" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="12" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="12" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B34" s="4"/>
     </row>
@@ -3730,7 +3584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A31"/>
@@ -3747,157 +3601,157 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="12" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="12" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="12" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="12" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="12" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="12" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="7" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="7" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="7" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="7" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3907,7 +3761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A52"/>
@@ -3926,262 +3780,262 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="7" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4191,7 +4045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B11"/>
@@ -4206,70 +4060,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4277,7 +4131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A13"/>
@@ -4288,58 +4142,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4350,6 +4204,152 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" t="s">
+        <v>210</v>
+      </c>
+      <c r="O7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="14:14">
+      <c r="N14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="9" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="868" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="集合" sheetId="4" r:id="rId1"/>
@@ -990,10 +990,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1046,8 +1046,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,14 +1155,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,92 +1171,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,61 +1191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,25 +1221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,25 +1239,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,31 +1323,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,7 +1359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,11 +1385,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,21 +1405,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,17 +1439,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,11 +1461,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,145 +1490,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3081,8 +3081,8 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3194,105 +3194,105 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>48</v>
       </c>
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="5"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="5"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="5"/>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="5"/>
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="5"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="5"/>
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="5"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="5"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>61</v>
       </c>
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H34" s="15"/>
@@ -3361,222 +3361,187 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
